--- a/linux知识地图.xlsx
+++ b/linux知识地图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="进程管理总结【宋宝华】" sheetId="2" r:id="rId1"/>
@@ -361,8 +361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -393,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
